--- a/Corona_Verordnungen.xlsx
+++ b/Corona_Verordnungen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisa.schueler\Documents\GitHub\Covid-19-Project-Data-Science\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3801639959faffc3/DHBW/Applied ML/Jupyter/Covid-19-Project-Data-Science/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CD0E5CA-2807-4CD4-8205-90E2FAB740AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{4CD0E5CA-2807-4CD4-8205-90E2FAB740AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F07766C6-2ABB-42C0-AB0E-19B28ED803F0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{28B95ECE-5420-4E7C-A921-A7B23599F40B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="417" activeTab="1" xr2:uid="{28B95ECE-5420-4E7C-A921-A7B23599F40B}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -982,34 +982,34 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>0</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -1034,33 +1034,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157A8ADD-C3BD-4A31-999C-2415437D7792}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="58.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="11.5546875" style="9"/>
+    <col min="12" max="12" width="31.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="58.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.5703125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>35</v>
       </c>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>26</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>27</v>
       </c>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>28</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="Q6" s="15"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>30</v>
       </c>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="Q7" s="15"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>34</v>
       </c>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="Q8" s="15"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>34</v>
       </c>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>36</v>
       </c>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="Q10" s="15"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>37</v>
       </c>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="Q11" s="15"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>37</v>
       </c>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>40</v>
       </c>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>42</v>
       </c>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="Q14" s="15"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>43</v>
       </c>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="Q15" s="15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>46</v>
       </c>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>47</v>
       </c>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>48</v>
       </c>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="Q18" s="15"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>49</v>
       </c>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="Q19" s="15"/>
     </row>
-    <row r="20" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>50</v>
       </c>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="Q20" s="15"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>52</v>
       </c>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="Q21" s="15"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>53</v>
       </c>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="Q22" s="15"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>54</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>57</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>60</v>
       </c>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>63</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>64</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>67</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>68</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>70</v>
       </c>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>71</v>
       </c>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>72</v>
       </c>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="Q32" s="15"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>73</v>
       </c>
@@ -2594,4 +2594,30 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <msg_Klassifizierung xmlns="1dd69248-66f9-453d-8211-ae5ae34a4b30">internal</msg_Klassifizierung>
+    <msg_Status xmlns="1dd69248-66f9-453d-8211-ae5ae34a4b30">draft</msg_Status>
+    <msg_Firma xmlns="1dd69248-66f9-453d-8211-ae5ae34a4b30"/>
+    <msg_Version xmlns="1dd69248-66f9-453d-8211-ae5ae34a4b30">0.1</msg_Version>
+    <msg_Manager xmlns="1dd69248-66f9-453d-8211-ae5ae34a4b30">[Dokumentverantwortlicher]</msg_Manager>
+    <msg_Dokumententyp xmlns="1dd69248-66f9-453d-8211-ae5ae34a4b30">Schriftwechsel (allgemein)</msg_Dokumententyp>
+    <msg_gueltig_ab xmlns="1dd69248-66f9-453d-8211-ae5ae34a4b30">2021-03-12T12:00:00+00:00</msg_gueltig_ab>
+    <msg_gueltig_bis xmlns="1dd69248-66f9-453d-8211-ae5ae34a4b30">2027-12-31T12:00:00+00:00</msg_gueltig_bis>
+    <msg_Kommentar xmlns="1dd69248-66f9-453d-8211-ae5ae34a4b30">Neues Dokument erstellt.</msg_Kommentar>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA12C959-C4F6-437D-99AB-89079C62B272}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1dd69248-66f9-453d-8211-ae5ae34a4b30"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>